--- a/Finflux Automation Excels/Client/5031-DISBURSELOANon01DEC2014-RUNSCHEDULERJOB-VIEWJOURNALENTRIES-NPA-1stRepayment.xlsx
+++ b/Finflux Automation Excels/Client/5031-DISBURSELOANon01DEC2014-RUNSCHEDULERJOB-VIEWJOURNALENTRIES-NPA-1stRepayment.xlsx
@@ -770,9 +770,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="I45" sqref="I45"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -865,758 +863,758 @@
       </c>
     </row>
     <row r="5" spans="1:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" s="5">
+      <c r="B5" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="13">
         <v>42002</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="E5" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="F5" s="4" t="s">
+      <c r="E5" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="F5" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="G5" s="4" t="s">
+      <c r="G5" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="H5" s="9" t="s">
+      <c r="H5" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="I5" s="9"/>
+      <c r="I5" s="14"/>
     </row>
     <row r="6" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" s="5">
+      <c r="B6" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="13">
         <v>42002</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="E6" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="F6" s="4" t="s">
+      <c r="E6" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="F6" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="G6" s="4" t="s">
+      <c r="G6" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="H6" s="9"/>
-      <c r="I6" s="9" t="s">
+      <c r="H6" s="14"/>
+      <c r="I6" s="14" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="B8" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" s="5">
+      <c r="B8" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="13">
         <v>42002</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D8" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="E8" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="G8" s="4" t="s">
+      <c r="E8" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="F8" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="G8" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="H8" s="9" t="s">
+      <c r="H8" s="14" t="s">
         <v>94</v>
       </c>
-      <c r="I8" s="9"/>
+      <c r="I8" s="14"/>
     </row>
     <row r="9" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
+      <c r="A9" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="B9" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9" s="5">
+      <c r="B9" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="13">
         <v>42002</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="D9" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="E9" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="G9" s="4" t="s">
+      <c r="E9" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="F9" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="G9" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="H9" s="9"/>
-      <c r="I9" s="9" t="s">
+      <c r="H9" s="14"/>
+      <c r="I9" s="14" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
+      <c r="A11" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="B11" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C11" s="5">
+      <c r="B11" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="13">
         <v>42016</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="D11" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="E11" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="F11" s="4" t="s">
+      <c r="E11" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="F11" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="G11" s="4" t="s">
+      <c r="G11" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="H11" s="9" t="s">
+      <c r="H11" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="I11" s="9"/>
+      <c r="I11" s="14"/>
     </row>
     <row r="12" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
+      <c r="A12" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="B12" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C12" s="5">
+      <c r="B12" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" s="13">
         <v>42016</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="D12" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="E12" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="F12" s="4" t="s">
+      <c r="E12" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="F12" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="G12" s="4" t="s">
+      <c r="G12" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="H12" s="9"/>
-      <c r="I12" s="9" t="s">
+      <c r="H12" s="14"/>
+      <c r="I12" s="14" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="A14" s="4" t="s">
+      <c r="A14" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="B14" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C14" s="5">
+      <c r="B14" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" s="13">
         <v>42016</v>
       </c>
-      <c r="D14" s="4" t="s">
+      <c r="D14" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="E14" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="F14" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="G14" s="4" t="s">
+      <c r="E14" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="F14" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="G14" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="H14" s="9" t="s">
+      <c r="H14" s="14" t="s">
         <v>94</v>
       </c>
-      <c r="I14" s="9"/>
+      <c r="I14" s="14"/>
     </row>
     <row r="15" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A15" s="4" t="s">
+      <c r="A15" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="B15" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C15" s="5">
+      <c r="B15" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15" s="13">
         <v>42016</v>
       </c>
-      <c r="D15" s="4" t="s">
+      <c r="D15" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="E15" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="F15" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="G15" s="4" t="s">
+      <c r="E15" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="F15" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="G15" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="H15" s="9"/>
-      <c r="I15" s="9" t="s">
+      <c r="H15" s="14"/>
+      <c r="I15" s="14" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="A17" s="4" t="s">
+      <c r="A17" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="B17" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C17" s="5">
+      <c r="B17" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17" s="13">
         <v>42030</v>
       </c>
-      <c r="D17" s="4" t="s">
+      <c r="D17" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="E17" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="F17" s="4" t="s">
+      <c r="E17" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="F17" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="G17" s="4" t="s">
+      <c r="G17" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="H17" s="9" t="s">
+      <c r="H17" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="I17" s="9"/>
+      <c r="I17" s="14"/>
     </row>
     <row r="18" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A18" s="4" t="s">
+      <c r="A18" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="B18" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C18" s="5">
+      <c r="B18" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C18" s="13">
         <v>42030</v>
       </c>
-      <c r="D18" s="4" t="s">
+      <c r="D18" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="E18" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="F18" s="4" t="s">
+      <c r="E18" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="F18" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="G18" s="4" t="s">
+      <c r="G18" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="H18" s="9"/>
-      <c r="I18" s="9" t="s">
+      <c r="H18" s="14"/>
+      <c r="I18" s="14" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="A20" s="4" t="s">
+      <c r="A20" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="B20" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C20" s="5">
+      <c r="B20" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C20" s="13">
         <v>42030</v>
       </c>
-      <c r="D20" s="4" t="s">
+      <c r="D20" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="E20" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="F20" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="G20" s="4" t="s">
+      <c r="E20" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="F20" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="G20" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="H20" s="9" t="s">
+      <c r="H20" s="14" t="s">
         <v>94</v>
       </c>
-      <c r="I20" s="9"/>
+      <c r="I20" s="14"/>
     </row>
     <row r="21" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A21" s="4" t="s">
+      <c r="A21" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="B21" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C21" s="5">
+      <c r="B21" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C21" s="13">
         <v>42030</v>
       </c>
-      <c r="D21" s="4" t="s">
+      <c r="D21" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="E21" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="F21" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="G21" s="4" t="s">
+      <c r="E21" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="F21" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="G21" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="H21" s="9"/>
-      <c r="I21" s="9" t="s">
+      <c r="H21" s="14"/>
+      <c r="I21" s="14" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="A23" s="4" t="s">
+      <c r="A23" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="B23" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C23" s="5">
+      <c r="B23" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C23" s="13">
         <v>42044</v>
       </c>
-      <c r="D23" s="4" t="s">
+      <c r="D23" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="E23" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="F23" s="4" t="s">
+      <c r="E23" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="F23" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="G23" s="4" t="s">
+      <c r="G23" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="H23" s="9" t="s">
+      <c r="H23" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="I23" s="9"/>
+      <c r="I23" s="14"/>
     </row>
     <row r="24" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A24" s="4" t="s">
+      <c r="A24" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="B24" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C24" s="5">
+      <c r="B24" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C24" s="13">
         <v>42044</v>
       </c>
-      <c r="D24" s="4" t="s">
+      <c r="D24" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="E24" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="F24" s="4" t="s">
+      <c r="E24" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="F24" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="G24" s="4" t="s">
+      <c r="G24" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="H24" s="9"/>
-      <c r="I24" s="9" t="s">
+      <c r="H24" s="14"/>
+      <c r="I24" s="14" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="A26" s="4" t="s">
+      <c r="A26" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="B26" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C26" s="5">
+      <c r="B26" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C26" s="13">
         <v>42044</v>
       </c>
-      <c r="D26" s="4" t="s">
+      <c r="D26" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="E26" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="F26" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="G26" s="4" t="s">
+      <c r="E26" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="F26" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="G26" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="H26" s="9" t="s">
+      <c r="H26" s="14" t="s">
         <v>94</v>
       </c>
-      <c r="I26" s="9"/>
+      <c r="I26" s="14"/>
     </row>
     <row r="27" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A27" s="4" t="s">
+      <c r="A27" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="B27" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C27" s="5">
+      <c r="B27" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C27" s="13">
         <v>42044</v>
       </c>
-      <c r="D27" s="4" t="s">
+      <c r="D27" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="E27" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="F27" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="G27" s="4" t="s">
+      <c r="E27" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="F27" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="G27" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="H27" s="9"/>
-      <c r="I27" s="9" t="s">
+      <c r="H27" s="14"/>
+      <c r="I27" s="14" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="A29" s="4" t="s">
+      <c r="A29" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="B29" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C29" s="5">
+      <c r="B29" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C29" s="13">
         <v>42058</v>
       </c>
-      <c r="D29" s="4" t="s">
+      <c r="D29" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="E29" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="F29" s="4" t="s">
+      <c r="E29" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="F29" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="G29" s="4" t="s">
+      <c r="G29" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="H29" s="9" t="s">
+      <c r="H29" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="I29" s="9"/>
+      <c r="I29" s="14"/>
     </row>
     <row r="30" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A30" s="4" t="s">
+      <c r="A30" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="B30" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C30" s="5">
+      <c r="B30" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C30" s="13">
         <v>42058</v>
       </c>
-      <c r="D30" s="4" t="s">
+      <c r="D30" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="E30" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="F30" s="4" t="s">
+      <c r="E30" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="F30" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="G30" s="4" t="s">
+      <c r="G30" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="H30" s="9"/>
-      <c r="I30" s="9" t="s">
+      <c r="H30" s="14"/>
+      <c r="I30" s="14" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="A32" s="4" t="s">
+      <c r="A32" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="B32" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C32" s="5">
+      <c r="B32" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C32" s="13">
         <v>42058</v>
       </c>
-      <c r="D32" s="4" t="s">
+      <c r="D32" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="E32" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="F32" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="G32" s="4" t="s">
+      <c r="E32" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="F32" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="G32" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="H32" s="9" t="s">
+      <c r="H32" s="14" t="s">
         <v>94</v>
       </c>
-      <c r="I32" s="9"/>
+      <c r="I32" s="14"/>
     </row>
     <row r="33" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A33" s="4" t="s">
+      <c r="A33" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="B33" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C33" s="5">
+      <c r="B33" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C33" s="13">
         <v>42058</v>
       </c>
-      <c r="D33" s="4" t="s">
+      <c r="D33" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="E33" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="F33" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="G33" s="4" t="s">
+      <c r="E33" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="F33" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="G33" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="H33" s="9"/>
-      <c r="I33" s="9" t="s">
+      <c r="H33" s="14"/>
+      <c r="I33" s="14" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="A35" s="4" t="s">
+      <c r="A35" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="B35" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C35" s="5">
+      <c r="B35" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C35" s="13">
         <v>42072</v>
       </c>
-      <c r="D35" s="4" t="s">
+      <c r="D35" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="E35" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="F35" s="4" t="s">
+      <c r="E35" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="F35" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="G35" s="4" t="s">
+      <c r="G35" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="H35" s="9" t="s">
+      <c r="H35" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="I35" s="9"/>
+      <c r="I35" s="14"/>
     </row>
     <row r="36" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A36" s="4" t="s">
+      <c r="A36" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="B36" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C36" s="5">
+      <c r="B36" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C36" s="13">
         <v>42072</v>
       </c>
-      <c r="D36" s="4" t="s">
+      <c r="D36" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="E36" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="F36" s="4" t="s">
+      <c r="E36" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="F36" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="G36" s="4" t="s">
+      <c r="G36" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="H36" s="9"/>
-      <c r="I36" s="9" t="s">
+      <c r="H36" s="14"/>
+      <c r="I36" s="14" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="38" spans="1:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="A38" s="4" t="s">
+      <c r="A38" s="12" t="s">
         <v>89</v>
       </c>
-      <c r="B38" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C38" s="5">
+      <c r="B38" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C38" s="13">
         <v>42072</v>
       </c>
-      <c r="D38" s="4" t="s">
+      <c r="D38" s="12" t="s">
         <v>89</v>
       </c>
-      <c r="E38" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="F38" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="G38" s="4" t="s">
+      <c r="E38" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="F38" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="G38" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="H38" s="9" t="s">
+      <c r="H38" s="14" t="s">
         <v>94</v>
       </c>
-      <c r="I38" s="9"/>
+      <c r="I38" s="14"/>
     </row>
     <row r="39" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A39" s="4" t="s">
+      <c r="A39" s="12" t="s">
         <v>89</v>
       </c>
-      <c r="B39" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C39" s="5">
+      <c r="B39" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C39" s="13">
         <v>42072</v>
       </c>
-      <c r="D39" s="4" t="s">
+      <c r="D39" s="12" t="s">
         <v>89</v>
       </c>
-      <c r="E39" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="F39" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="G39" s="4" t="s">
+      <c r="E39" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="F39" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="G39" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="H39" s="9"/>
-      <c r="I39" s="9" t="s">
+      <c r="H39" s="14"/>
+      <c r="I39" s="14" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="41" spans="1:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="A41" s="4" t="s">
+      <c r="A41" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="B41" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C41" s="5">
+      <c r="B41" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C41" s="13">
         <v>42086</v>
       </c>
-      <c r="D41" s="4" t="s">
+      <c r="D41" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="E41" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="F41" s="4" t="s">
+      <c r="E41" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="F41" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="G41" s="4" t="s">
+      <c r="G41" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="H41" s="9" t="s">
+      <c r="H41" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="I41" s="9"/>
+      <c r="I41" s="14"/>
     </row>
     <row r="42" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A42" s="4" t="s">
+      <c r="A42" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="B42" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C42" s="5">
+      <c r="B42" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C42" s="13">
         <v>42086</v>
       </c>
-      <c r="D42" s="4" t="s">
+      <c r="D42" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="E42" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="F42" s="4" t="s">
+      <c r="E42" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="F42" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="G42" s="4" t="s">
+      <c r="G42" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="H42" s="9"/>
-      <c r="I42" s="9" t="s">
+      <c r="H42" s="14"/>
+      <c r="I42" s="14" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="44" spans="1:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="A44" s="4" t="s">
+      <c r="A44" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="B44" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C44" s="5">
+      <c r="B44" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C44" s="13">
         <v>42086</v>
       </c>
-      <c r="D44" s="4" t="s">
+      <c r="D44" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="E44" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="F44" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="G44" s="4" t="s">
+      <c r="E44" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="F44" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="G44" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="H44" s="9" t="s">
+      <c r="H44" s="14" t="s">
         <v>94</v>
       </c>
-      <c r="I44" s="9"/>
+      <c r="I44" s="14"/>
     </row>
     <row r="45" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A45" s="4" t="s">
+      <c r="A45" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="B45" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C45" s="5">
+      <c r="B45" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C45" s="13">
         <v>42086</v>
       </c>
-      <c r="D45" s="4" t="s">
+      <c r="D45" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="E45" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="F45" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="G45" s="4" t="s">
+      <c r="E45" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="F45" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="G45" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="H45" s="9"/>
-      <c r="I45" s="9" t="s">
+      <c r="H45" s="14"/>
+      <c r="I45" s="14" t="s">
         <v>94</v>
       </c>
     </row>

--- a/Finflux Automation Excels/Client/5031-DISBURSELOANon01DEC2014-RUNSCHEDULERJOB-VIEWJOURNALENTRIES-NPA-1stRepayment.xlsx
+++ b/Finflux Automation Excels/Client/5031-DISBURSELOANon01DEC2014-RUNSCHEDULERJOB-VIEWJOURNALENTRIES-NPA-1stRepayment.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18625"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="7" activeTab="9"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="6" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="Modify Transaction" sheetId="1" r:id="rId1"/>
@@ -770,7 +770,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="M45" sqref="M45"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -862,6 +864,17 @@
         <v>58</v>
       </c>
     </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4"/>
+      <c r="B4"/>
+      <c r="C4"/>
+      <c r="D4"/>
+      <c r="E4"/>
+      <c r="F4"/>
+      <c r="G4"/>
+      <c r="H4"/>
+      <c r="I4"/>
+    </row>
     <row r="5" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A5" s="12" t="s">
         <v>64</v>
@@ -916,6 +929,17 @@
         <v>58</v>
       </c>
     </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7"/>
+      <c r="B7"/>
+      <c r="C7"/>
+      <c r="D7"/>
+      <c r="E7"/>
+      <c r="F7"/>
+      <c r="G7"/>
+      <c r="H7"/>
+      <c r="I7"/>
+    </row>
     <row r="8" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A8" s="12" t="s">
         <v>69</v>
@@ -970,6 +994,17 @@
         <v>94</v>
       </c>
     </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10"/>
+      <c r="B10"/>
+      <c r="C10"/>
+      <c r="D10"/>
+      <c r="E10"/>
+      <c r="F10"/>
+      <c r="G10"/>
+      <c r="H10"/>
+      <c r="I10"/>
+    </row>
     <row r="11" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A11" s="12" t="s">
         <v>70</v>
@@ -1024,6 +1059,17 @@
         <v>58</v>
       </c>
     </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13"/>
+      <c r="B13"/>
+      <c r="C13"/>
+      <c r="D13"/>
+      <c r="E13"/>
+      <c r="F13"/>
+      <c r="G13"/>
+      <c r="H13"/>
+      <c r="I13"/>
+    </row>
     <row r="14" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A14" s="12" t="s">
         <v>73</v>
@@ -1078,6 +1124,17 @@
         <v>94</v>
       </c>
     </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16"/>
+      <c r="B16"/>
+      <c r="C16"/>
+      <c r="D16"/>
+      <c r="E16"/>
+      <c r="F16"/>
+      <c r="G16"/>
+      <c r="H16"/>
+      <c r="I16"/>
+    </row>
     <row r="17" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A17" s="12" t="s">
         <v>74</v>
@@ -1132,6 +1189,17 @@
         <v>58</v>
       </c>
     </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19"/>
+      <c r="B19"/>
+      <c r="C19"/>
+      <c r="D19"/>
+      <c r="E19"/>
+      <c r="F19"/>
+      <c r="G19"/>
+      <c r="H19"/>
+      <c r="I19"/>
+    </row>
     <row r="20" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A20" s="12" t="s">
         <v>77</v>
@@ -1186,6 +1254,17 @@
         <v>94</v>
       </c>
     </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22"/>
+      <c r="B22"/>
+      <c r="C22"/>
+      <c r="D22"/>
+      <c r="E22"/>
+      <c r="F22"/>
+      <c r="G22"/>
+      <c r="H22"/>
+      <c r="I22"/>
+    </row>
     <row r="23" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A23" s="12" t="s">
         <v>78</v>
@@ -1240,6 +1319,17 @@
         <v>58</v>
       </c>
     </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25"/>
+      <c r="B25"/>
+      <c r="C25"/>
+      <c r="D25"/>
+      <c r="E25"/>
+      <c r="F25"/>
+      <c r="G25"/>
+      <c r="H25"/>
+      <c r="I25"/>
+    </row>
     <row r="26" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A26" s="12" t="s">
         <v>81</v>
@@ -1294,6 +1384,17 @@
         <v>94</v>
       </c>
     </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28"/>
+      <c r="B28"/>
+      <c r="C28"/>
+      <c r="D28"/>
+      <c r="E28"/>
+      <c r="F28"/>
+      <c r="G28"/>
+      <c r="H28"/>
+      <c r="I28"/>
+    </row>
     <row r="29" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A29" s="12" t="s">
         <v>82</v>
@@ -1348,6 +1449,17 @@
         <v>58</v>
       </c>
     </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31"/>
+      <c r="B31"/>
+      <c r="C31"/>
+      <c r="D31"/>
+      <c r="E31"/>
+      <c r="F31"/>
+      <c r="G31"/>
+      <c r="H31"/>
+      <c r="I31"/>
+    </row>
     <row r="32" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A32" s="12" t="s">
         <v>85</v>
@@ -1402,6 +1514,17 @@
         <v>94</v>
       </c>
     </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34"/>
+      <c r="B34"/>
+      <c r="C34"/>
+      <c r="D34"/>
+      <c r="E34"/>
+      <c r="F34"/>
+      <c r="G34"/>
+      <c r="H34"/>
+      <c r="I34"/>
+    </row>
     <row r="35" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A35" s="12" t="s">
         <v>86</v>
@@ -1456,6 +1579,17 @@
         <v>58</v>
       </c>
     </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A37"/>
+      <c r="B37"/>
+      <c r="C37"/>
+      <c r="D37"/>
+      <c r="E37"/>
+      <c r="F37"/>
+      <c r="G37"/>
+      <c r="H37"/>
+      <c r="I37"/>
+    </row>
     <row r="38" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A38" s="12" t="s">
         <v>89</v>
@@ -1510,6 +1644,17 @@
         <v>94</v>
       </c>
     </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A40"/>
+      <c r="B40"/>
+      <c r="C40"/>
+      <c r="D40"/>
+      <c r="E40"/>
+      <c r="F40"/>
+      <c r="G40"/>
+      <c r="H40"/>
+      <c r="I40"/>
+    </row>
     <row r="41" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A41" s="12" t="s">
         <v>90</v>
@@ -1563,6 +1708,17 @@
       <c r="I42" s="14" t="s">
         <v>58</v>
       </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A43"/>
+      <c r="B43"/>
+      <c r="C43"/>
+      <c r="D43"/>
+      <c r="E43"/>
+      <c r="F43"/>
+      <c r="G43"/>
+      <c r="H43"/>
+      <c r="I43"/>
     </row>
     <row r="44" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A44" s="12" t="s">
@@ -2377,8 +2533,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L35"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="M34" sqref="M34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3917,8 +4073,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22:I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4059,10 +4215,6 @@
         <v>94</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="H7" s="9"/>
-      <c r="I7" s="9"/>
-    </row>
     <row r="8" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>72</v>
@@ -4115,10 +4267,6 @@
         <v>94</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="H10" s="9"/>
-      <c r="I10" s="9"/>
-    </row>
     <row r="11" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>76</v>
@@ -4171,10 +4319,6 @@
         <v>94</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="H13" s="9"/>
-      <c r="I13" s="9"/>
-    </row>
     <row r="14" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>80</v>
@@ -4227,10 +4371,6 @@
         <v>94</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="H16" s="9"/>
-      <c r="I16" s="9"/>
-    </row>
     <row r="17" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>84</v>
@@ -4283,10 +4423,6 @@
         <v>94</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="H19" s="9"/>
-      <c r="I19" s="9"/>
-    </row>
     <row r="20" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
         <v>88</v>
@@ -4338,10 +4474,6 @@
       <c r="I21" s="9" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="H22" s="9"/>
-      <c r="I22" s="9"/>
     </row>
     <row r="23" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
@@ -4404,8 +4536,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L27" sqref="L27"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22:I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
